--- a/src/Section Properties ITERATION002C.xlsx
+++ b/src/Section Properties ITERATION002C.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A974V276\Documents\GitHub\structures-calc\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMAC_PC\Documents\GitHub\structures-calc\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D1FE453-9237-4919-BB58-FF621AE0656A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DEFACB-C184-4900-87EB-F83C9D468B2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="768" windowWidth="30720" windowHeight="12828" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cross Section Properties" sheetId="1" r:id="rId1"/>
@@ -863,43 +863,43 @@
   <dimension ref="A1:BB25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.7109375" customWidth="1"/>
-    <col min="30" max="30" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="35" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.6640625" customWidth="1"/>
+    <col min="30" max="30" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="35" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="25.33203125" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="25" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="23.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1080,7 +1080,7 @@
       </c>
       <c r="L2">
         <f t="shared" ref="L2:L15" si="1">E2-$AI$3</f>
-        <v>-0.34587660080488614</v>
+        <v>-0.34324636049458279</v>
       </c>
       <c r="M2">
         <f>C2*K2^2</f>
@@ -1088,11 +1088,11 @@
       </c>
       <c r="N2">
         <f>C2*L2^2</f>
-        <v>2.8038427261955289E-2</v>
+        <v>2.7613608748307129E-2</v>
       </c>
       <c r="O2">
         <f>C2*K2*L2</f>
-        <v>-4.5058592961956731E-2</v>
+        <v>-4.4715942064907629E-2</v>
       </c>
       <c r="P2">
         <v>255</v>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="V2">
         <f t="shared" ref="V2:V15" si="4">E2-$AI$5</f>
-        <v>-0.38941597600005751</v>
+        <v>-0.37701873546251519</v>
       </c>
       <c r="W2">
         <f>C2*U2^2</f>
@@ -1127,11 +1127,11 @@
       </c>
       <c r="X2">
         <f>C2*V2^2</f>
-        <v>3.5541750554080632E-2</v>
+        <v>3.3314795364786091E-2</v>
       </c>
       <c r="Y2">
         <f>C2*U2*V2</f>
-        <v>-4.4890530176024138E-2</v>
+        <v>-4.3461419058996184E-2</v>
       </c>
       <c r="Z2">
         <v>1.47</v>
@@ -1190,7 +1190,7 @@
       </c>
       <c r="AT2">
         <f>-AI3</f>
-        <v>1.5291233991951139</v>
+        <v>1.5317536395054172</v>
       </c>
       <c r="AU2" t="s">
         <v>62</v>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="AZ2">
         <f>(Q2)*(H2+X2)</f>
-        <v>3.9550494094082782E-2</v>
+        <v>3.9266557307447728E-2</v>
       </c>
       <c r="BA2">
         <f>(Q2)*(I2+W2)</f>
@@ -1214,10 +1214,10 @@
       </c>
       <c r="BB2">
         <f>(Q2)*(J2+Y2)</f>
-        <v>-5.7235425974430775E-3</v>
+        <v>-5.541330930022014E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="L3">
         <f t="shared" si="1"/>
-        <v>-0.34587660080488614</v>
+        <v>-0.34324636049458279</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M15" si="7">C3*K3^2</f>
@@ -1270,11 +1270,11 @@
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N15" si="8">C3*L3^2</f>
-        <v>2.9018229534864898E-2</v>
+        <v>2.8578565746859599E-2</v>
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O15" si="9">C3*K3*L3</f>
-        <v>3.988627367624966E-2</v>
+        <v>3.9582956005707839E-2</v>
       </c>
       <c r="P3">
         <v>255</v>
@@ -1301,7 +1301,7 @@
       </c>
       <c r="V3">
         <f t="shared" si="4"/>
-        <v>-0.38941597600005751</v>
+        <v>-0.37701873546251519</v>
       </c>
       <c r="W3">
         <f t="shared" ref="W3:W15" si="13">C3*U3^2</f>
@@ -1309,11 +1309,11 @@
       </c>
       <c r="X3">
         <f t="shared" ref="X3:X15" si="14">C3*V3^2</f>
-        <v>3.6783756307496286E-2</v>
+        <v>3.4478980214206201E-2</v>
       </c>
       <c r="Y3">
         <f t="shared" ref="Y3:Y15" si="15">C3*U3*V3</f>
-        <v>5.0951383534397515E-2</v>
+        <v>4.9329322303410923E-2</v>
       </c>
       <c r="Z3">
         <v>1.47</v>
@@ -1343,11 +1343,11 @@
       </c>
       <c r="AI3">
         <f>G16/C16</f>
-        <v>-1.5291233991951139</v>
+        <v>-1.5317536395054172</v>
       </c>
       <c r="AJ3">
         <f>H16+N16</f>
-        <v>1.0864018626510268</v>
+        <v>1.0804235871848147</v>
       </c>
       <c r="AK3">
         <f>I16+M16</f>
@@ -1355,11 +1355,11 @@
       </c>
       <c r="AL3">
         <f>J16+O16</f>
-        <v>-0.16382825661883932</v>
+        <v>-0.16509697549366875</v>
       </c>
       <c r="AM3">
         <f>(AJ3*AK3)-AL3^2</f>
-        <v>0.46982572898742786</v>
+        <v>0.46667535417692912</v>
       </c>
       <c r="AO3" t="s">
         <v>62</v>
@@ -1378,7 +1378,7 @@
       </c>
       <c r="AT3">
         <f>-1.875-AI3</f>
-        <v>-0.34587660080488614</v>
+        <v>-0.34324636049458279</v>
       </c>
       <c r="AU3" t="s">
         <v>62</v>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="AZ3">
         <f t="shared" ref="AZ3:AZ15" si="17">(Q3)*(H3+X3)</f>
-        <v>7.2765835231587937E-3</v>
+        <v>6.9827245712643076E-3</v>
       </c>
       <c r="BA3">
         <f t="shared" ref="BA3:BA15" si="18">(Q3)*(I3+W3)</f>
@@ -1402,10 +1402,10 @@
       </c>
       <c r="BB3">
         <f t="shared" ref="BB3:BB15" si="19">(Q3)*(J3+Y3)</f>
-        <v>-3.1659005596254971E-3</v>
+        <v>-3.3727133665762878E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="L4">
         <f t="shared" si="1"/>
-        <v>1.4666233991951139</v>
+        <v>1.4692536395054172</v>
       </c>
       <c r="M4">
         <f t="shared" si="7"/>
@@ -1457,11 +1457,11 @@
       </c>
       <c r="N4">
         <f t="shared" si="8"/>
-        <v>0.40330953657499313</v>
+        <v>0.40475742322498393</v>
       </c>
       <c r="O4">
         <f t="shared" si="9"/>
-        <v>-6.1987553703213814E-2</v>
+        <v>-6.2098722093529124E-2</v>
       </c>
       <c r="P4">
         <v>155</v>
@@ -1488,7 +1488,7 @@
       </c>
       <c r="V4">
         <f t="shared" si="4"/>
-        <v>1.4230840239999425</v>
+        <v>1.4354812645374848</v>
       </c>
       <c r="W4">
         <f t="shared" si="13"/>
@@ -1496,11 +1496,11 @@
       </c>
       <c r="X4">
         <f t="shared" si="14"/>
-        <v>0.37971902613072539</v>
+        <v>0.38636371140715059</v>
       </c>
       <c r="Y4">
         <f t="shared" si="15"/>
-        <v>-7.722100066310017E-2</v>
+        <v>-7.7893713801344355E-2</v>
       </c>
       <c r="Z4">
         <v>0.63</v>
@@ -1575,7 +1575,7 @@
       </c>
       <c r="AZ4">
         <f t="shared" si="17"/>
-        <v>2.9447145423568716E-2</v>
+        <v>2.996210853249167E-2</v>
       </c>
       <c r="BA4">
         <f t="shared" si="18"/>
@@ -1583,10 +1583,10 @@
       </c>
       <c r="BB4">
         <f t="shared" si="19"/>
-        <v>-5.9846275513902635E-3</v>
+        <v>-6.0367628196041877E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1630,7 +1630,7 @@
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>-2.1583766008048864</v>
+        <v>-2.1557463604945828</v>
       </c>
       <c r="M5">
         <f t="shared" si="7"/>
@@ -1638,11 +1638,11 @@
       </c>
       <c r="N5">
         <f t="shared" si="8"/>
-        <v>0.29116184693137848</v>
+        <v>0.29045264817410249</v>
       </c>
       <c r="O5">
         <f t="shared" si="9"/>
-        <v>-3.7040988656439518E-2</v>
+        <v>-3.6995849776847639E-2</v>
       </c>
       <c r="P5">
         <v>155</v>
@@ -1669,7 +1669,7 @@
       </c>
       <c r="V5">
         <f t="shared" si="4"/>
-        <v>-2.2019159760000573</v>
+        <v>-2.1895187354625154</v>
       </c>
       <c r="W5">
         <f t="shared" si="13"/>
@@ -1677,11 +1677,11 @@
       </c>
       <c r="X5">
         <f t="shared" si="14"/>
-        <v>0.30302712283526778</v>
+        <v>0.2996245183088358</v>
       </c>
       <c r="Y5">
         <f t="shared" si="15"/>
-        <v>-2.8982252883258997E-2</v>
+        <v>-2.8819076829208867E-2</v>
       </c>
       <c r="Z5">
         <v>0.63</v>
@@ -1711,11 +1711,11 @@
       </c>
       <c r="AI5">
         <f>T16/R16</f>
-        <v>-1.4855840239999425</v>
+        <v>-1.4979812645374848</v>
       </c>
       <c r="AJ5">
         <f>AZ16</f>
-        <v>0.12093379482690673</v>
+        <v>0.11764138391279808</v>
       </c>
       <c r="AK5">
         <f>BA16</f>
@@ -1723,11 +1723,11 @@
       </c>
       <c r="AL5">
         <f>BB16</f>
-        <v>-9.1170342161330849E-3</v>
+        <v>-9.7632492282630282E-3</v>
       </c>
       <c r="AM5">
         <f>(AJ5*AK5)-AL5^2</f>
-        <v>7.0360798435596967E-3</v>
+        <v>6.830059582527164E-3</v>
       </c>
       <c r="AO5" t="s">
         <v>62</v>
@@ -1758,7 +1758,7 @@
       </c>
       <c r="AZ5">
         <f t="shared" si="17"/>
-        <v>2.3490908985879085E-2</v>
+        <v>2.3227207135080606E-2</v>
       </c>
       <c r="BA5">
         <f t="shared" si="18"/>
@@ -1766,10 +1766,10 @@
       </c>
       <c r="BB5">
         <f t="shared" si="19"/>
-        <v>-2.2461245984525722E-3</v>
+        <v>-2.2334784542636871E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>0.125</v>
       </c>
       <c r="E6" s="5">
-        <v>6.25E-2</v>
+        <v>-6.25E-2</v>
       </c>
       <c r="F6">
         <f t="shared" si="5"/>
@@ -1793,7 +1793,7 @@
       </c>
       <c r="G6">
         <f t="shared" si="6"/>
-        <v>9.765625E-4</v>
+        <v>-9.765625E-4</v>
       </c>
       <c r="H6">
         <f>((1/8)^4)/12</f>
@@ -1812,7 +1812,7 @@
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>1.5916233991951139</v>
+        <v>1.4692536395054172</v>
       </c>
       <c r="M6">
         <f t="shared" si="7"/>
@@ -1820,11 +1820,11 @@
       </c>
       <c r="N6">
         <f t="shared" si="8"/>
-        <v>3.9582266326022013E-2</v>
+        <v>3.372978526874866E-2</v>
       </c>
       <c r="O6">
         <f t="shared" si="9"/>
-        <v>1.6154581185432323E-2</v>
+        <v>1.4912558594819032E-2</v>
       </c>
       <c r="P6">
         <v>1130</v>
@@ -1843,7 +1843,7 @@
       </c>
       <c r="T6">
         <f t="shared" si="12"/>
-        <v>5.5175781249999995E-4</v>
+        <v>-5.5175781249999995E-4</v>
       </c>
       <c r="U6">
         <f t="shared" si="3"/>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="V6">
         <f t="shared" si="4"/>
-        <v>1.5480840239999425</v>
+        <v>1.4354812645374848</v>
       </c>
       <c r="W6">
         <f t="shared" si="13"/>
@@ -1859,11 +1859,11 @@
       </c>
       <c r="X6">
         <f t="shared" si="14"/>
-        <v>3.7446314771310225E-2</v>
+        <v>3.2196975950595882E-2</v>
       </c>
       <c r="Y6">
         <f t="shared" si="15"/>
-        <v>1.4164886886333314E-2</v>
+        <v>1.3134577596819729E-2</v>
       </c>
       <c r="Z6">
         <v>7.8</v>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="AZ6">
         <f t="shared" si="17"/>
-        <v>2.1168662800217359E-2</v>
+        <v>1.8202786366513755E-2</v>
       </c>
       <c r="BA6">
         <f t="shared" si="18"/>
@@ -1927,10 +1927,10 @@
       </c>
       <c r="BB6">
         <f t="shared" si="19"/>
-        <v>8.0031610907783223E-3</v>
+        <v>7.4210363422031458E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -2091,7 +2091,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -2257,7 +2257,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -2427,7 +2427,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -2599,7 +2599,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -2939,7 +2939,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -3096,7 +3096,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -3253,7 +3253,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -3410,7 +3410,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -3424,7 +3424,7 @@
       </c>
       <c r="G16" s="2">
         <f t="shared" ref="G16:J16" si="23">SUM(G2:G6)</f>
-        <v>-1.1354738680544929</v>
+        <v>-1.1374269930544929</v>
       </c>
       <c r="H16" s="2">
         <f t="shared" si="23"/>
@@ -3444,11 +3444,11 @@
       </c>
       <c r="N16" s="2">
         <f t="shared" ref="N16:O16" si="24">SUM(N2:N6)</f>
-        <v>0.79111030662921389</v>
+        <v>0.78513203116300179</v>
       </c>
       <c r="O16" s="2">
         <f t="shared" si="24"/>
-        <v>-8.8046280459928086E-2</v>
+        <v>-8.9314999334757519E-2</v>
       </c>
       <c r="R16" s="2">
         <f>SUM(R2:R6)</f>
@@ -3460,7 +3460,7 @@
       </c>
       <c r="T16" s="2">
         <f t="shared" si="25"/>
-        <v>-0.13223629708319784</v>
+        <v>-0.13333981270819784</v>
       </c>
       <c r="W16" s="2">
         <f>SUM(W2:W6)</f>
@@ -3468,15 +3468,15 @@
       </c>
       <c r="X16" s="2">
         <f t="shared" ref="X16:Y16" si="26">SUM(X2:X6)</f>
-        <v>0.79251797059888029</v>
+        <v>0.78597898124557453</v>
       </c>
       <c r="Y16" s="2">
         <f t="shared" si="26"/>
-        <v>-8.5977513301652472E-2</v>
+        <v>-8.7710309789318749E-2</v>
       </c>
       <c r="AZ16" s="2">
         <f>SUM(AZ2:AZ6)</f>
-        <v>0.12093379482690673</v>
+        <v>0.11764138391279808</v>
       </c>
       <c r="BA16" s="2">
         <f t="shared" ref="BA16:BB16" si="27">SUM(BA2:BA6)</f>
@@ -3484,10 +3484,10 @@
       </c>
       <c r="BB16" s="2">
         <f t="shared" si="27"/>
-        <v>-9.1170342161330849E-3</v>
+        <v>-9.7632492282630282E-3</v>
       </c>
     </row>
-    <row r="21" spans="17:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="17:22" x14ac:dyDescent="0.3">
       <c r="Q21" s="1"/>
       <c r="R21" s="4" t="s">
         <v>54</v>
@@ -3495,13 +3495,13 @@
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
     </row>
-    <row r="22" spans="17:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="17:22" x14ac:dyDescent="0.3">
       <c r="Q22" s="2"/>
       <c r="R22" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="17:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="17:22" x14ac:dyDescent="0.3">
       <c r="Q23" s="6" t="s">
         <v>36</v>
       </c>
@@ -3511,7 +3511,7 @@
       <c r="U23" s="6"/>
       <c r="V23" s="6"/>
     </row>
-    <row r="24" spans="17:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="17:22" x14ac:dyDescent="0.3">
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
       <c r="S24" s="6"/>
@@ -3519,7 +3519,7 @@
       <c r="U24" s="6"/>
       <c r="V24" s="6"/>
     </row>
-    <row r="25" spans="17:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="17:22" x14ac:dyDescent="0.3">
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
       <c r="S25" s="6"/>
